--- a/biology/Zoologie/Conus_praelatus/Conus_praelatus.xlsx
+++ b/biology/Zoologie/Conus_praelatus/Conus_praelatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus praelatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est présente dans les endroits suivants[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est présente dans les endroits suivants : 
 Madagascar
 Tanzanie</t>
         </is>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus praelatus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[2],[1].
-Synonymes
-Conus (Darioconus) miniturritus Bozzetti, 2017 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus praelatus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_praelatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_praelatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) miniturritus Bozzetti, 2017 · non accepté
 Conus (Darioconus) praelatus Hwass, 1792 · appellation alternative
 Conus fortdauphinensis (Bozzetti, 2015) · non accepté
 Conus miniturritus (Bozzetti, 2017) · non accepté
